--- a/pcb/distance_sensor_v2/power_consumption.xlsx
+++ b/pcb/distance_sensor_v2/power_consumption.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\dev\distance_sensor\pcb\distance_sensor_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3873BF5-6CC2-47FF-B46A-C7702B91EA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9705A6DC-2D3B-4494-BD46-71531E5AC7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" tabRatio="458" xr2:uid="{A3180FC2-0C6A-4164-BA02-8C829DCF6D72}"/>
   </bookViews>
@@ -152,7 +152,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -568,7 +568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -576,15 +576,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -601,14 +592,14 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="6" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="6" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,6 +625,15 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -972,7 +972,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA050295-5E85-4D37-88E6-1E75CDA37C76}">
   <dimension ref="G5:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1002,253 +1004,253 @@
     </row>
     <row r="7" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G7" s="2"/>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="36"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G8" s="2"/>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="26">
         <v>3</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="28" t="s">
         <v>18</v>
       </c>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G9" s="2"/>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="29">
         <v>500</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="18" t="s">
         <v>26</v>
       </c>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G10" s="2"/>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="29">
         <v>0.4</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="18" t="s">
         <v>29</v>
       </c>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G11" s="2"/>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="29">
         <v>3</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="18" t="s">
         <v>28</v>
       </c>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G12" s="2"/>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="32">
-        <v>6</v>
-      </c>
-      <c r="J12" s="20" t="s">
+      <c r="I12" s="29">
+        <v>4</v>
+      </c>
+      <c r="J12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="7:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G13" s="2"/>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="31">
         <v>1.25</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G14" s="2"/>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="12">
         <f>mAh_cell/1000*3600</f>
         <v>1800</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G15" s="2"/>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="16">
         <f>Coulombs_cell*Cells</f>
         <v>5400</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="18" t="s">
         <v>19</v>
       </c>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G16" s="2"/>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="16">
         <f>Sleep_hours*3600-Reading_time</f>
-        <v>21597</v>
-      </c>
-      <c r="J16" s="20" t="s">
+        <v>14397</v>
+      </c>
+      <c r="J16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="21"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G17" s="2"/>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="19">
         <f>Sleep_current/1000000*Sleep_seconds</f>
-        <v>2.6996250000000003E-2</v>
-      </c>
-      <c r="J17" s="20" t="s">
+        <v>1.7996250000000002E-2</v>
+      </c>
+      <c r="J17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K17" s="21"/>
+      <c r="K17" s="18"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G18" s="2"/>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="19">
         <f>Coulombs_sleep+Coulombs_reading</f>
-        <v>0.42699625000000002</v>
-      </c>
-      <c r="J18" s="20" t="s">
+        <v>0.41799625000000001</v>
+      </c>
+      <c r="J18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="18" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G19" s="2"/>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="20">
         <f>Coulombs/Coulombs_cycle</f>
-        <v>12646.48108736318</v>
-      </c>
-      <c r="J19" s="20" t="s">
+        <v>12918.776185193048</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G20" s="2"/>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="20">
         <f>Cycles*Sleep_hours</f>
-        <v>75878.886524179077</v>
-      </c>
-      <c r="J20" s="20" t="s">
+        <v>51675.104740772193</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G21" s="2"/>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="20">
         <f>Hours/24</f>
-        <v>3161.6202718407949</v>
-      </c>
-      <c r="J21" s="20" t="s">
+        <v>2153.1293641988414</v>
+      </c>
+      <c r="J21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="K21" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G22" s="2"/>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="22">
         <f>Days/365.25</f>
-        <v>8.6560445498721279</v>
-      </c>
-      <c r="J22" s="26" t="s">
+        <v>5.8949469245690382</v>
+      </c>
+      <c r="J22" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="24" t="s">
         <v>23</v>
       </c>
       <c r="L22" s="4"/>
